--- a/task.xlsx
+++ b/task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Learning\TS\vite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4106A6-2947-4A35-8E5E-00F0BE43D8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7329D9-9948-4CE5-9DDE-516D06262ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Login</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t>Quên mật khẩu</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Load</t>
   </si>
 </sst>
 </file>
@@ -363,58 +381,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A5"/>
+    <mergeCell ref="A6:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
